--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatha\Dropbox\websites\TathagataChakraborti.github.io\pagegen\icaps19_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9990CB9A-0C07-4E1B-B56C-38C77ED101B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2346D33F-CB07-BB41-B38B-FDD706DC5E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="11955" tabRatio="742" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -646,9 +646,6 @@
     <t>Keyder</t>
   </si>
   <si>
-    <t>INRIA</t>
-  </si>
-  <si>
     <t>Antonín</t>
   </si>
   <si>
@@ -910,9 +907,6 @@
     <t>Pozanco</t>
   </si>
   <si>
-    <t>Universidad Carlos III</t>
-  </si>
-  <si>
     <t>Aswin</t>
   </si>
   <si>
@@ -1909,16 +1903,22 @@
     <t>Sanner</t>
   </si>
   <si>
-    <t>Bartak</t>
-  </si>
-  <si>
-    <t>Roeger</t>
-  </si>
-  <si>
     <t>Senior Program Committee</t>
   </si>
   <si>
     <t>Program Committee</t>
+  </si>
+  <si>
+    <t>Röger</t>
+  </si>
+  <si>
+    <t>Barták</t>
+  </si>
+  <si>
+    <t>Jörg</t>
+  </si>
+  <si>
+    <t>Invitae, Inc., San Francisco</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2174,6 +2174,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2579,33 +2580,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN171"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="29.46484375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>168</v>
       </c>
@@ -2616,38 +2617,38 @@
         <v>152</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
@@ -2658,66 +2659,66 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="D7" s="25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>614</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>615</v>
-      </c>
       <c r="B8" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -2728,12 +2729,12 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>176</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>177</v>
@@ -2742,24 +2743,24 @@
         <v>120</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
         <v>63</v>
       </c>
@@ -2770,10 +2771,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2784,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2798,10 +2799,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2812,10 +2813,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2826,10 +2827,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2840,10 +2841,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2854,10 +2855,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2868,10 +2869,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2882,10 +2883,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2896,10 +2897,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2910,10 +2911,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2924,10 +2925,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2938,10 +2939,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2952,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2966,10 +2967,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2980,10 +2981,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2994,10 +2995,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3008,10 +3009,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -3022,10 +3023,10 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -3036,10 +3037,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3050,10 +3051,10 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -3064,10 +3065,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -3078,10 +3079,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
@@ -3092,10 +3093,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -3106,10 +3107,10 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3120,10 +3121,10 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -3134,10 +3135,10 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3148,10 +3149,10 @@
         <v>109</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3201,7 +3202,7 @@
       <c r="AM41"/>
       <c r="AN41"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -3212,10 +3213,10 @@
         <v>115</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -3226,10 +3227,10 @@
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -3240,10 +3241,10 @@
         <v>123</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -3254,10 +3255,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -3268,10 +3269,10 @@
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -3282,10 +3283,10 @@
         <v>109</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3296,10 +3297,10 @@
         <v>138</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3349,7 +3350,7 @@
       <c r="AM49"/>
       <c r="AN49"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -3360,10 +3361,10 @@
         <v>143</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
@@ -3374,10 +3375,10 @@
         <v>146</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>150</v>
       </c>
@@ -3388,10 +3389,10 @@
         <v>152</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3402,10 +3403,10 @@
         <v>155</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3416,24 +3417,24 @@
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>171</v>
       </c>
@@ -3444,10 +3445,10 @@
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>173</v>
       </c>
@@ -3458,10 +3459,10 @@
         <v>175</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>176</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>120</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
@@ -3511,7 +3512,7 @@
       <c r="AM58"/>
       <c r="AN58"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
@@ -3522,10 +3523,10 @@
         <v>182</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>178</v>
       </c>
@@ -3536,10 +3537,10 @@
         <v>180</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>185</v>
       </c>
@@ -3550,10 +3551,10 @@
         <v>143</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
@@ -3564,24 +3565,24 @@
         <v>189</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3592,10 +3593,10 @@
         <v>59</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>192</v>
       </c>
@@ -3606,10 +3607,10 @@
         <v>93</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
@@ -3620,10 +3621,10 @@
         <v>196</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>197</v>
       </c>
@@ -3631,746 +3632,746 @@
         <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D69" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D74" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="D79" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E79" s="17"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="D81" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E81" s="17"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D84" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E84" s="17"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E87" s="17"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="D89" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D91" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E91" s="17"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="D93" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="D94" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="D95" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E95" s="17"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E96" s="17"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E98" s="17"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E99" s="17"/>
+    </row>
+    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E99" s="17"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="D101" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E101" s="17"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E102" s="17"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="D103" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E104" s="17"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E106" s="17"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E107" s="17"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="D109" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D109" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="D113" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E113" s="17"/>
     </row>
-    <row r="114" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="116" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D116" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="117" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="D117" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E117"/>
       <c r="F117"/>
@@ -4409,18 +4410,18 @@
       <c r="AM117"/>
       <c r="AN117"/>
     </row>
-    <row r="118" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="D118" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F118"/>
       <c r="G118"/>
@@ -4458,133 +4459,133 @@
       <c r="AM118"/>
       <c r="AN118"/>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D119" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="D121" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D121" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="D123" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A124" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="B124" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="D123" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A124" s="15" t="s">
+      <c r="C124" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B124" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>380</v>
-      </c>
       <c r="D124" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="D125" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="16" t="s">
+      <c r="B126" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A126" s="19" t="s">
+      <c r="C126" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="D126" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="B127" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A127" s="21" t="s">
+      <c r="C127" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B127" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>399</v>
-      </c>
       <c r="D127" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="11" t="s">
         <v>9</v>
       </c>
@@ -4592,13 +4593,13 @@
         <v>10</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
         <v>11</v>
       </c>
@@ -4609,10 +4610,10 @@
         <v>27</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -4623,10 +4624,10 @@
         <v>15</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
         <v>31</v>
       </c>
@@ -4637,24 +4638,24 @@
         <v>33</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
         <v>34</v>
       </c>
@@ -4665,10 +4666,10 @@
         <v>36</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
         <v>60</v>
       </c>
@@ -4679,10 +4680,10 @@
         <v>62</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>67</v>
       </c>
@@ -4693,10 +4694,10 @@
         <v>27</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
         <v>91</v>
       </c>
@@ -4707,10 +4708,10 @@
         <v>93</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
         <v>97</v>
       </c>
@@ -4721,10 +4722,10 @@
         <v>99</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
         <v>103</v>
       </c>
@@ -4735,10 +4736,10 @@
         <v>104</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>105</v>
       </c>
@@ -4749,10 +4750,10 @@
         <v>89</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
         <v>118</v>
       </c>
@@ -4763,10 +4764,10 @@
         <v>120</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
         <v>126</v>
       </c>
@@ -4777,10 +4778,10 @@
         <v>128</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
         <v>129</v>
       </c>
@@ -4791,10 +4792,10 @@
         <v>131</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
         <v>147</v>
       </c>
@@ -4805,10 +4806,10 @@
         <v>149</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
         <v>54</v>
       </c>
@@ -4819,10 +4820,10 @@
         <v>120</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>159</v>
       </c>
@@ -4833,10 +4834,10 @@
         <v>161</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
         <v>162</v>
       </c>
@@ -4844,13 +4845,13 @@
         <v>163</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
         <v>150</v>
       </c>
@@ -4861,10 +4862,10 @@
         <v>165</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>166</v>
       </c>
@@ -4875,10 +4876,10 @@
         <v>161</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
         <v>183</v>
       </c>
@@ -4889,315 +4890,315 @@
         <v>30</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="D152" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A153" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="D153" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="D154" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>232</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D159" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>287</v>
+      <c r="C160" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="D163" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="D169" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="B170" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D169" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="D170" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D170" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="D171" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5219,16 +5220,16 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -5239,10 +5240,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -5253,10 +5254,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -5267,24 +5268,24 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -5295,24 +5296,24 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
@@ -5323,10 +5324,10 @@
         <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -5337,10 +5338,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>136</v>
       </c>
@@ -5351,273 +5352,273 @@
         <v>138</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="25.5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5656,130 +5657,130 @@
       <c r="AM28"/>
       <c r="AN28"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="D29" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>396</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5796,44 +5797,44 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.1328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.9296875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>489</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -5844,10 +5845,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -5858,10 +5859,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -5872,94 +5873,94 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>187</v>
       </c>
@@ -5970,63 +5971,63 @@
         <v>189</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6064,116 +6065,116 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>272</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>362</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6211,89 +6212,89 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>183</v>
       </c>
@@ -6304,49 +6305,49 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="25.5" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -6359,283 +6360,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80F18B3-45A4-5A46-B0D6-9B7EEEBA9D64}">
   <dimension ref="A1:AM52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="60" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.06640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="4" max="4" width="40" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6673,46 +6674,46 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6750,144 +6751,144 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6925,278 +6926,278 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2346D33F-CB07-BB41-B38B-FDD706DC5E97}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709839C-87C6-E142-99A0-0D1B261D51F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="615">
   <si>
     <t>Mouaddib</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Haslum</t>
   </si>
   <si>
-    <t>ANU</t>
-  </si>
-  <si>
     <t>Malte</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>Universidad Andrés Bello</t>
   </si>
   <si>
-    <t>Joerg</t>
-  </si>
-  <si>
     <t>Hoffmann</t>
   </si>
   <si>
@@ -652,9 +646,6 @@
     <t>Komenda</t>
   </si>
   <si>
-    <t>Department of Computer Science, Faculty of Electrical Engineering,Czech Technical University in Prague</t>
-  </si>
-  <si>
     <t>Daniel Laszlo</t>
   </si>
   <si>
@@ -832,9 +823,6 @@
     <t>Palacios</t>
   </si>
   <si>
-    <t>Nuance Communications</t>
-  </si>
-  <si>
     <t>Patrizi</t>
   </si>
   <si>
@@ -985,9 +973,6 @@
     <t>Scala</t>
   </si>
   <si>
-    <t>ANU Research School in Computer Science</t>
-  </si>
-  <si>
     <t>Dominik</t>
   </si>
   <si>
@@ -1090,9 +1075,6 @@
     <t>Surynek</t>
   </si>
   <si>
-    <t>Czech Technical University, Faculty of Information Technology</t>
-  </si>
-  <si>
     <t>Alejandro</t>
   </si>
   <si>
@@ -1138,9 +1120,6 @@
     <t>Trevizan</t>
   </si>
   <si>
-    <t>Australian National University (ANU)</t>
-  </si>
-  <si>
     <t>Mauro</t>
   </si>
   <si>
@@ -1195,9 +1174,6 @@
     <t>Walker</t>
   </si>
   <si>
-    <t>University of Denver, Department of Computer Science</t>
-  </si>
-  <si>
     <t>Sachini</t>
   </si>
   <si>
@@ -1240,21 +1216,12 @@
     <t>Zhuo</t>
   </si>
   <si>
-    <t>Department of Computer Science, Sun Yat-sen University</t>
-  </si>
-  <si>
     <t>Michal</t>
   </si>
   <si>
     <t>Štolba</t>
   </si>
   <si>
-    <t>Faculty of Electrical Engineering, Czech Technical University in Prague</t>
-  </si>
-  <si>
-    <t>Charles University in Prague, Faculty of Mathematics and Physics</t>
-  </si>
-  <si>
     <t>Vlk</t>
   </si>
   <si>
@@ -1396,9 +1363,6 @@
     <t>Prasad</t>
   </si>
   <si>
-    <t>Indian Institute of Technology Madras</t>
-  </si>
-  <si>
     <t>Ravindran</t>
   </si>
   <si>
@@ -1414,9 +1378,6 @@
     <t>Hugo</t>
   </si>
   <si>
-    <t>Dept. of Computer Science &amp; Engineering, IIT Madras</t>
-  </si>
-  <si>
     <t>Mishra</t>
   </si>
   <si>
@@ -1603,9 +1564,6 @@
     <t>Rahul</t>
   </si>
   <si>
-    <t>University of California Merced</t>
-  </si>
-  <si>
     <t>Sharma</t>
   </si>
   <si>
@@ -1693,9 +1651,6 @@
     <t>Bruno</t>
   </si>
   <si>
-    <t>Oxford Robotics Institute, Department of Engineering Science, University of Oxford</t>
-  </si>
-  <si>
     <t>Kunze</t>
   </si>
   <si>
@@ -1843,9 +1798,6 @@
     <t>Sucha</t>
   </si>
   <si>
-    <t>Czech Technical University, Department of Control Engineering</t>
-  </si>
-  <si>
     <t>Ubbo</t>
   </si>
   <si>
@@ -1919,6 +1871,27 @@
   </si>
   <si>
     <t>Invitae, Inc., San Francisco</t>
+  </si>
+  <si>
+    <t>Indian Institute of Technology, Madras</t>
+  </si>
+  <si>
+    <t>Element AI</t>
+  </si>
+  <si>
+    <t>Czech Technical University</t>
+  </si>
+  <si>
+    <t>Sun Yat-sen University</t>
+  </si>
+  <si>
+    <t>University of Denver</t>
+  </si>
+  <si>
+    <t>Charles University in Prague</t>
+  </si>
+  <si>
+    <t>Oxford Robotics Institute, University of Oxford</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2153,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2578,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN171"/>
+  <dimension ref="A1:AN170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2594,16 +2575,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2617,35 +2598,35 @@
         <v>152</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2659,63 +2640,63 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2729,35 +2710,35 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>120</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -2771,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2785,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2799,7 +2780,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2813,7 +2794,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2827,7 +2808,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2841,7 +2822,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2855,7 +2836,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2869,7 +2850,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2883,7 +2864,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2897,7 +2878,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2911,7 +2892,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2925,7 +2906,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2939,7 +2920,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2953,7 +2934,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2967,7 +2948,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2981,7 +2962,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2995,7 +2976,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3009,7 +2990,7 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3023,7 +3004,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3037,7 +3018,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3051,7 +3032,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3065,7 +3046,7 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3079,7 +3060,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3093,7 +3074,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3107,7 +3088,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3121,7 +3102,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3135,7 +3116,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3149,7 +3130,7 @@
         <v>109</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -3163,7 +3144,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3213,7 +3194,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3227,7 +3208,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3241,7 +3222,7 @@
         <v>123</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3255,7 +3236,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3269,7 +3250,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3283,7 +3264,7 @@
         <v>109</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3297,7 +3278,7 @@
         <v>138</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -3311,7 +3292,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3361,7 +3342,7 @@
         <v>143</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3375,7 +3356,7 @@
         <v>146</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3389,7 +3370,7 @@
         <v>152</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3403,7 +3384,7 @@
         <v>155</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3417,7 +3398,7 @@
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3425,686 +3406,651 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-      <c r="AM58"/>
-      <c r="AN58"/>
-    </row>
-    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>182</v>
+      <c r="C59" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>180</v>
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>143</v>
+      <c r="C61" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>161</v>
+      <c r="C63" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>59</v>
+      <c r="C64" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>93</v>
+      <c r="C65" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C66" s="2" t="s">
+        <v>607</v>
+      </c>
       <c r="D66" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>623</v>
+      <c r="C67" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>209</v>
+      <c r="C70" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>59</v>
+      <c r="A71" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>24</v>
+      <c r="A72" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A73" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>226</v>
+      <c r="A74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>238</v>
+      <c r="C76" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>30</v>
+        <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>619</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A79" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>244</v>
+      <c r="A79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>257</v>
+        <v>609</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D83" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="D87" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+      <c r="C89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D90" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E94" s="17"/>
+    </row>
+    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D94" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A95" s="1" t="s">
+      <c r="C95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="D96" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D97" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
+      <c r="C98" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>271</v>
+      <c r="C99" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E99" s="17"/>
     </row>
@@ -4116,264 +4062,298 @@
         <v>307</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E100" s="17"/>
     </row>
     <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>312</v>
+      <c r="A101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E101" s="17"/>
     </row>
     <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="A102" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>321</v>
+      <c r="C103" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D105" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>328</v>
+        <v>224</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E106" s="17"/>
     </row>
     <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>227</v>
+        <v>328</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E107" s="17"/>
     </row>
     <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D108" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E108" s="17"/>
     </row>
     <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>339</v>
+      <c r="A109" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E109" s="17"/>
     </row>
     <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E110" s="17"/>
     </row>
     <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E112" s="17"/>
-    </row>
-    <row r="113" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D115" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D114" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="116" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="1" t="s">
+      <c r="C116" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
+      <c r="AM116"/>
+      <c r="AN116"/>
+    </row>
+    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D116" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>360</v>
+      <c r="C117" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="E117"/>
+        <v>603</v>
+      </c>
       <c r="F117"/>
       <c r="G117"/>
       <c r="H117"/>
@@ -4410,515 +4390,480 @@
       <c r="AM117"/>
       <c r="AN117"/>
     </row>
-    <row r="118" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D118" s="24" t="s">
-        <v>619</v>
-      </c>
-      <c r="F118"/>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
-      <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118"/>
-      <c r="N118"/>
-      <c r="O118"/>
-      <c r="P118"/>
-      <c r="Q118"/>
-      <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118"/>
-      <c r="Z118"/>
-      <c r="AA118"/>
-      <c r="AB118"/>
-      <c r="AC118"/>
-      <c r="AD118"/>
-      <c r="AE118"/>
-      <c r="AF118"/>
-      <c r="AG118"/>
-      <c r="AH118"/>
-      <c r="AI118"/>
-      <c r="AJ118"/>
-      <c r="AK118"/>
-      <c r="AL118"/>
-      <c r="AM118"/>
-      <c r="AN118"/>
-    </row>
-    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
+      <c r="D120" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A124" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A120" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A122" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A124" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="D124" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A127" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>619</v>
+      <c r="D127" s="6" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A128" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>241</v>
+      <c r="A128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>31</v>
+        <v>568</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>32</v>
+        <v>567</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>33</v>
+        <v>528</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
-        <v>583</v>
+        <v>34</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>542</v>
+        <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>161</v>
+        <v>585</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>601</v>
+        <v>165</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="C151" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D151" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4932,7 +4877,7 @@
         <v>216</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4946,21 +4891,21 @@
         <v>219</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4971,24 +4916,24 @@
         <v>228</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>56</v>
+        <v>244</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4999,52 +4944,52 @@
         <v>246</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>254</v>
+        <v>281</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>56</v>
+        <v>305</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5055,157 +5000,143 @@
         <v>309</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="C165" s="6" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>120</v>
+        <v>316</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>348</v>
+        <v>285</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>74</v>
+        <v>612</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:E171">
-    <sortCondition sortBy="cellColor" ref="E14:E171" dxfId="0"/>
-    <sortCondition ref="B14:B171"/>
-    <sortCondition ref="A14:A171"/>
+  <sortState ref="A14:E170">
+    <sortCondition sortBy="cellColor" ref="E14:E170" dxfId="1"/>
+    <sortCondition ref="B14:B170"/>
+    <sortCondition ref="A14:A170"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5217,7 +5148,7 @@
   <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5240,7 +5171,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5254,7 +5185,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5268,21 +5199,21 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5296,21 +5227,21 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5324,7 +5255,7 @@
         <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5338,7 +5269,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5352,273 +5283,273 @@
         <v>138</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5659,128 +5590,128 @@
     </row>
     <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>401</v>
+        <v>613</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5794,7 +5725,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5808,30 +5739,30 @@
   <sheetData>
     <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5845,7 +5776,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5859,7 +5790,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5873,133 +5804,133 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6007,27 +5938,27 @@
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6067,72 +5998,72 @@
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>449</v>
+        <v>608</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6140,41 +6071,41 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6214,140 +6145,142 @@
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>469</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6361,7 +6294,7 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6375,156 +6308,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6532,111 +6465,111 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6676,44 +6609,44 @@
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6753,58 +6686,58 @@
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6812,27 +6745,27 @@
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6840,55 +6773,55 @@
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6928,276 +6861,276 @@
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B709839C-87C6-E142-99A0-0D1B261D51F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095A2E3-3AFA-6D49-BEBB-844D12FF1AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="613">
   <si>
     <t>Mouaddib</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>Traverso</t>
   </si>
   <si>
-    <t>FBK</t>
-  </si>
-  <si>
     <t>Felipe</t>
   </si>
   <si>
@@ -1705,9 +1702,6 @@
     <t>Fernando</t>
   </si>
   <si>
-    <t>UC Merced</t>
-  </si>
-  <si>
     <t>Farias</t>
   </si>
   <si>
@@ -1870,9 +1864,6 @@
     <t>Jörg</t>
   </si>
   <si>
-    <t>Invitae, Inc., San Francisco</t>
-  </si>
-  <si>
     <t>Indian Institute of Technology, Madras</t>
   </si>
   <si>
@@ -1892,6 +1883,9 @@
   </si>
   <si>
     <t>Oxford Robotics Institute, University of Oxford</t>
+  </si>
+  <si>
+    <t>Invitae Inc., San Francisco</t>
   </si>
 </sst>
 </file>
@@ -2153,15 +2147,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2561,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2575,16 +2561,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2598,35 +2584,35 @@
         <v>152</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>272</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2640,63 +2626,63 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>596</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2710,12 +2696,12 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>175</v>
@@ -2724,21 +2710,21 @@
         <v>120</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -2752,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2766,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2780,7 +2766,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2794,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2808,7 +2794,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2822,7 +2808,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2836,7 +2822,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2850,7 +2836,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2864,7 +2850,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2878,7 +2864,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2892,7 +2878,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2906,7 +2892,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2920,7 +2906,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2934,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2948,7 +2934,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2962,7 +2948,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2976,7 +2962,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2990,7 +2976,7 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3004,7 +2990,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3018,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3032,7 +3018,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3046,7 +3032,7 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3060,7 +3046,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3074,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3088,7 +3074,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3102,7 +3088,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3116,7 +3102,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3130,7 +3116,7 @@
         <v>109</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -3144,7 +3130,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3194,7 +3180,7 @@
         <v>115</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3208,7 +3194,7 @@
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3222,7 +3208,7 @@
         <v>123</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3236,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3250,7 +3236,7 @@
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3264,7 +3250,7 @@
         <v>109</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3278,7 +3264,7 @@
         <v>138</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -3292,7 +3278,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3342,7 +3328,7 @@
         <v>143</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3356,7 +3342,7 @@
         <v>146</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3370,7 +3356,7 @@
         <v>152</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3384,7 +3370,7 @@
         <v>155</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3398,7 +3384,7 @@
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3406,13 +3392,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3426,7 +3412,7 @@
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3440,7 +3426,7 @@
         <v>174</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3454,7 +3440,7 @@
         <v>180</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3468,7 +3454,7 @@
         <v>178</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3482,7 +3468,7 @@
         <v>143</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3496,21 +3482,21 @@
         <v>187</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3524,7 +3510,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3538,7 +3524,7 @@
         <v>93</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3552,7 +3538,7 @@
         <v>194</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3563,10 +3549,10 @@
         <v>196</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3577,10 +3563,10 @@
         <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3594,7 +3580,7 @@
         <v>201</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3608,7 +3594,7 @@
         <v>206</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3622,21 +3608,21 @@
         <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3650,7 +3636,7 @@
         <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3664,7 +3650,7 @@
         <v>223</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3678,7 +3664,7 @@
         <v>230</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3692,7 +3678,7 @@
         <v>235</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3706,7 +3692,7 @@
         <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3720,7 +3706,7 @@
         <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E77" s="17"/>
     </row>
@@ -3735,7 +3721,7 @@
         <v>241</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E78" s="17"/>
     </row>
@@ -3750,7 +3736,7 @@
         <v>178</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E79" s="17"/>
     </row>
@@ -3765,7 +3751,7 @@
         <v>254</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E80" s="17"/>
     </row>
@@ -3777,10 +3763,10 @@
         <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E81" s="17"/>
     </row>
@@ -3795,7 +3781,7 @@
         <v>259</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E82" s="17"/>
     </row>
@@ -3810,7 +3796,7 @@
         <v>262</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E83" s="17"/>
     </row>
@@ -3825,7 +3811,7 @@
         <v>264</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E84" s="17"/>
     </row>
@@ -3840,7 +3826,7 @@
         <v>267</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E85" s="17"/>
     </row>
@@ -3855,7 +3841,7 @@
         <v>30</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E86" s="17"/>
     </row>
@@ -3870,7 +3856,7 @@
         <v>272</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E87" s="17"/>
     </row>
@@ -3885,7 +3871,7 @@
         <v>275</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E88" s="17"/>
     </row>
@@ -3900,7 +3886,7 @@
         <v>93</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E89" s="17"/>
     </row>
@@ -3915,7 +3901,7 @@
         <v>279</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E90" s="17"/>
     </row>
@@ -3930,7 +3916,7 @@
         <v>284</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E91" s="17"/>
     </row>
@@ -3945,7 +3931,7 @@
         <v>287</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E92" s="17"/>
     </row>
@@ -3960,7 +3946,7 @@
         <v>290</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E93" s="17"/>
     </row>
@@ -3975,7 +3961,7 @@
         <v>293</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E94" s="17"/>
     </row>
@@ -3990,7 +3976,7 @@
         <v>102</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E95" s="17"/>
     </row>
@@ -4005,7 +3991,7 @@
         <v>297</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E96" s="17"/>
     </row>
@@ -4020,7 +4006,7 @@
         <v>128</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E97" s="17"/>
     </row>
@@ -4035,7 +4021,7 @@
         <v>267</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E98" s="17"/>
     </row>
@@ -4050,7 +4036,7 @@
         <v>115</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E99" s="17"/>
     </row>
@@ -4065,7 +4051,7 @@
         <v>152</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E100" s="17"/>
     </row>
@@ -4080,7 +4066,7 @@
         <v>143</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E101" s="17"/>
     </row>
@@ -4095,7 +4081,7 @@
         <v>316</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E102" s="17"/>
     </row>
@@ -4110,7 +4096,7 @@
         <v>93</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E103" s="17"/>
     </row>
@@ -4125,7 +4111,7 @@
         <v>115</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E104" s="17"/>
     </row>
@@ -4140,7 +4126,7 @@
         <v>93</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E105" s="17"/>
     </row>
@@ -4155,7 +4141,7 @@
         <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E106" s="17"/>
     </row>
@@ -4170,7 +4156,7 @@
         <v>161</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E107" s="17"/>
     </row>
@@ -4185,22 +4171,22 @@
         <v>334</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E108" s="17"/>
     </row>
     <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>390</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E109" s="17"/>
     </row>
@@ -4215,7 +4201,7 @@
         <v>337</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E110" s="17"/>
     </row>
@@ -4230,7 +4216,7 @@
         <v>178</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E111" s="17"/>
     </row>
@@ -4242,10 +4228,10 @@
         <v>341</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E112" s="17"/>
     </row>
@@ -4260,7 +4246,7 @@
         <v>346</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -4274,7 +4260,7 @@
         <v>152</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -4288,7 +4274,7 @@
         <v>351</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -4302,7 +4288,7 @@
         <v>241</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -4343,16 +4329,16 @@
     </row>
     <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4392,128 +4378,128 @@
     </row>
     <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="D120" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="D122" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>371</v>
-      </c>
       <c r="D123" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>383</v>
-      </c>
       <c r="D124" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B125" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>386</v>
-      </c>
       <c r="D125" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="C126" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -4527,7 +4513,7 @@
         <v>238</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -4541,7 +4527,7 @@
         <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4555,7 +4541,7 @@
         <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4569,21 +4555,21 @@
         <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4597,7 +4583,7 @@
         <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4611,7 +4597,7 @@
         <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4625,7 +4611,7 @@
         <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4639,7 +4625,7 @@
         <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4653,7 +4639,7 @@
         <v>99</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4667,7 +4653,7 @@
         <v>104</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4681,7 +4667,7 @@
         <v>89</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4695,7 +4681,7 @@
         <v>120</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4709,7 +4695,7 @@
         <v>128</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4723,7 +4709,7 @@
         <v>131</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4737,7 +4723,7 @@
         <v>149</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4751,7 +4737,7 @@
         <v>120</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4765,7 +4751,7 @@
         <v>161</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4776,10 +4762,10 @@
         <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4793,7 +4779,7 @@
         <v>165</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4807,7 +4793,7 @@
         <v>161</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4821,7 +4807,7 @@
         <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4835,7 +4821,7 @@
         <v>161</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4849,7 +4835,7 @@
         <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4863,7 +4849,7 @@
         <v>213</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4877,7 +4863,7 @@
         <v>216</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4891,7 +4877,7 @@
         <v>219</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4905,7 +4891,7 @@
         <v>226</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4919,7 +4905,7 @@
         <v>56</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4933,7 +4919,7 @@
         <v>244</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4947,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4961,7 +4947,7 @@
         <v>251</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4975,7 +4961,7 @@
         <v>56</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4989,7 +4975,7 @@
         <v>24</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5003,7 +4989,7 @@
         <v>21</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5017,7 +5003,7 @@
         <v>312</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5031,7 +5017,7 @@
         <v>241</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5045,7 +5031,7 @@
         <v>161</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5059,7 +5045,7 @@
         <v>120</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5073,7 +5059,7 @@
         <v>316</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5081,60 +5067,60 @@
         <v>285</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="C169" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D169" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="D170" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:E170">
-    <sortCondition sortBy="cellColor" ref="E14:E170" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="E14:E170" dxfId="0"/>
     <sortCondition ref="B14:B170"/>
     <sortCondition ref="A14:A170"/>
   </sortState>
@@ -5171,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5185,7 +5171,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5199,21 +5185,21 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5227,7 +5213,7 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5235,13 +5221,13 @@
         <v>285</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5255,7 +5241,7 @@
         <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5269,7 +5255,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5283,21 +5269,21 @@
         <v>138</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5311,35 +5297,35 @@
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5353,21 +5339,21 @@
         <v>235</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5381,7 +5367,7 @@
         <v>254</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5395,21 +5381,21 @@
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5423,7 +5409,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5437,7 +5423,7 @@
         <v>275</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5451,35 +5437,35 @@
         <v>279</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5493,21 +5479,21 @@
         <v>287</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -5521,35 +5507,35 @@
         <v>128</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5599,91 +5585,91 @@
         <v>346</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5691,13 +5677,13 @@
         <v>197</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5705,13 +5691,13 @@
         <v>265</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5725,7 +5711,7 @@
   <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5739,30 +5725,30 @@
   <sheetData>
     <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5776,7 +5762,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5790,7 +5776,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5804,35 +5790,35 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5840,41 +5826,41 @@
         <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5882,13 +5868,13 @@
         <v>183</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5902,35 +5888,35 @@
         <v>187</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5938,13 +5924,13 @@
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5958,7 +5944,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -5998,30 +5984,30 @@
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6035,7 +6021,7 @@
         <v>267</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6049,21 +6035,21 @@
         <v>284</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6077,21 +6063,21 @@
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
@@ -6101,11 +6087,11 @@
       <c r="B24" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>354</v>
+      <c r="C24" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6145,44 +6131,44 @@
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6190,13 +6176,13 @@
         <v>239</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6204,27 +6190,27 @@
         <v>280</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6238,21 +6224,21 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6266,21 +6252,21 @@
         <v>241</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -6294,7 +6280,7 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6308,30 +6294,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6339,13 +6325,13 @@
         <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6353,13 +6339,13 @@
         <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6367,41 +6353,41 @@
         <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6409,55 +6395,55 @@
         <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6465,13 +6451,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6479,97 +6465,97 @@
         <v>288</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6609,44 +6595,44 @@
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6686,30 +6672,30 @@
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6717,27 +6703,27 @@
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6751,21 +6737,21 @@
         <v>264</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6773,13 +6759,13 @@
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6787,41 +6773,41 @@
         <v>302</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6861,44 +6847,44 @@
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6906,161 +6892,167 @@
         <v>172</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>562</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="D36" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>495</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D46" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>493</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -7068,13 +7060,13 @@
         <v>328</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -7082,55 +7074,55 @@
         <v>190</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095A2E3-3AFA-6D49-BEBB-844D12FF1AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D36006-5BE9-384A-BA74-AE596C136B5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="618">
   <si>
     <t>Mouaddib</t>
   </si>
@@ -1886,6 +1886,21 @@
   </si>
   <si>
     <t>Invitae Inc., San Francisco</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Pinchinat</t>
+  </si>
+  <si>
+    <t>IRISA/University of Rennes</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>Lê Cong</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2162,39 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2545,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN170"/>
+  <dimension ref="A1:AN172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4840,13 +4887,13 @@
     </row>
     <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
-        <v>211</v>
+        <v>616</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>212</v>
+        <v>617</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>213</v>
+        <v>615</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>584</v>
@@ -4854,13 +4901,13 @@
     </row>
     <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>584</v>
@@ -4868,13 +4915,13 @@
     </row>
     <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>584</v>
@@ -4882,13 +4929,13 @@
     </row>
     <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>584</v>
@@ -4896,13 +4943,13 @@
     </row>
     <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>584</v>
@@ -4910,13 +4957,13 @@
     </row>
     <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>584</v>
@@ -4924,13 +4971,13 @@
     </row>
     <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>584</v>
@@ -4938,13 +4985,13 @@
     </row>
     <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>251</v>
+        <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>584</v>
@@ -4952,13 +4999,13 @@
     </row>
     <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>56</v>
+        <v>250</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>584</v>
@@ -4966,13 +5013,13 @@
     </row>
     <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
-        <v>304</v>
+        <v>613</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>24</v>
+        <v>614</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>615</v>
       </c>
       <c r="D160" s="6" t="s">
         <v>584</v>
@@ -4980,13 +5027,13 @@
     </row>
     <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>21</v>
+        <v>281</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>584</v>
@@ -4994,13 +5041,13 @@
     </row>
     <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>584</v>
@@ -5008,13 +5055,13 @@
     </row>
     <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>584</v>
@@ -5022,13 +5069,13 @@
     </row>
     <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>584</v>
@@ -5036,13 +5083,13 @@
     </row>
     <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>584</v>
@@ -5050,13 +5097,13 @@
     </row>
     <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>584</v>
@@ -5064,13 +5111,13 @@
     </row>
     <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>584</v>
@@ -5078,13 +5125,13 @@
     </row>
     <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>609</v>
+        <v>316</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>584</v>
@@ -5092,13 +5139,13 @@
     </row>
     <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>584</v>
@@ -5106,23 +5153,51 @@
     </row>
     <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D172" s="6" t="s">
         <v>584</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:E170">
-    <sortCondition sortBy="cellColor" ref="E14:E170" dxfId="0"/>
-    <sortCondition ref="B14:B170"/>
-    <sortCondition ref="A14:A170"/>
+  <sortState ref="A14:E172">
+    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="4"/>
+    <sortCondition ref="B14:B172"/>
+    <sortCondition ref="A14:A172"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirli\Dropbox\icaps19_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D36006-5BE9-384A-BA74-AE596C136B5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B464912-464A-4369-9D31-45D1A38B49C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="617">
   <si>
     <t>Mouaddib</t>
   </si>
@@ -1505,9 +1505,6 @@
   </si>
   <si>
     <t>Veiga</t>
-  </si>
-  <si>
-    <t>Indian Institute of Technology, Kharagpur</t>
   </si>
   <si>
     <t>Vats</t>
@@ -2095,7 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2157,44 +2154,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2592,35 +2561,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN172"/>
+  <dimension ref="A1:AN173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="29.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>586</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>587</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>168</v>
       </c>
@@ -2631,38 +2600,38 @@
         <v>152</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>588</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>589</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>272</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>459</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
@@ -2673,66 +2642,66 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="25" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
-        <v>595</v>
-      </c>
       <c r="B8" s="23" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>597</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -2743,12 +2712,12 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>175</v>
@@ -2757,24 +2726,24 @@
         <v>120</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>598</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>599</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>63</v>
       </c>
@@ -2785,10 +2754,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2799,10 +2768,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2813,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2827,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2841,10 +2810,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2855,10 +2824,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2869,10 +2838,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2883,10 +2852,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2897,10 +2866,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2911,10 +2880,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2925,10 +2894,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2939,10 +2908,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2953,10 +2922,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2967,10 +2936,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2981,10 +2950,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2995,10 +2964,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3009,10 +2978,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3023,10 +2992,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -3037,10 +3006,10 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -3051,10 +3020,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3065,10 +3034,10 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -3079,10 +3048,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -3093,10 +3062,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
@@ -3107,10 +3076,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -3121,10 +3090,10 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3135,10 +3104,10 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -3149,10 +3118,10 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3163,10 +3132,10 @@
         <v>109</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -3177,7 +3146,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3216,7 +3185,7 @@
       <c r="AM41"/>
       <c r="AN41"/>
     </row>
-    <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -3227,10 +3196,10 @@
         <v>115</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -3241,10 +3210,10 @@
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -3255,10 +3224,10 @@
         <v>123</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -3269,10 +3238,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -3283,10 +3252,10 @@
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -3297,10 +3266,10 @@
         <v>109</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3311,10 +3280,10 @@
         <v>138</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
@@ -3325,7 +3294,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3364,7 +3333,7 @@
       <c r="AM49"/>
       <c r="AN49"/>
     </row>
-    <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -3375,10 +3344,10 @@
         <v>143</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
@@ -3389,10 +3358,10 @@
         <v>146</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>150</v>
       </c>
@@ -3403,10 +3372,10 @@
         <v>152</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3417,10 +3386,10 @@
         <v>155</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3431,24 +3400,24 @@
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
@@ -3459,10 +3428,10 @@
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
@@ -3473,10 +3442,10 @@
         <v>174</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -3487,10 +3456,10 @@
         <v>180</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3501,10 +3470,10 @@
         <v>178</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -3515,10 +3484,10 @@
         <v>143</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
@@ -3529,24 +3498,24 @@
         <v>187</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -3557,10 +3526,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -3571,10 +3540,10 @@
         <v>93</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3585,10 +3554,10 @@
         <v>194</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
@@ -3596,13 +3565,13 @@
         <v>196</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -3613,10 +3582,10 @@
         <v>405</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>199</v>
       </c>
@@ -3627,10 +3596,10 @@
         <v>201</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>204</v>
       </c>
@@ -3641,10 +3610,10 @@
         <v>206</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -3655,24 +3624,24 @@
         <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>172</v>
       </c>
@@ -3683,10 +3652,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3697,10 +3666,10 @@
         <v>223</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>176</v>
       </c>
@@ -3711,10 +3680,10 @@
         <v>230</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
@@ -3725,10 +3694,10 @@
         <v>235</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>231</v>
       </c>
@@ -3739,10 +3708,10 @@
         <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>236</v>
       </c>
@@ -3753,11 +3722,11 @@
         <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E77" s="17"/>
     </row>
-    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>239</v>
       </c>
@@ -3768,11 +3737,11 @@
         <v>241</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -3783,11 +3752,11 @@
         <v>178</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E79" s="17"/>
     </row>
-    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>252</v>
       </c>
@@ -3798,11 +3767,11 @@
         <v>254</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
@@ -3810,14 +3779,14 @@
         <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E81" s="17"/>
     </row>
-    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>236</v>
       </c>
@@ -3828,11 +3797,11 @@
         <v>259</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E82" s="17"/>
     </row>
-    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
@@ -3843,11 +3812,11 @@
         <v>262</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E83" s="17"/>
     </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -3858,11 +3827,11 @@
         <v>264</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E84" s="17"/>
     </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>265</v>
       </c>
@@ -3873,11 +3842,11 @@
         <v>267</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E85" s="17"/>
     </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -3888,11 +3857,11 @@
         <v>30</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E86" s="17"/>
     </row>
-    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -3903,11 +3872,11 @@
         <v>272</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E87" s="17"/>
     </row>
-    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
@@ -3918,11 +3887,11 @@
         <v>275</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E88" s="17"/>
     </row>
-    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
@@ -3933,11 +3902,11 @@
         <v>93</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
@@ -3948,11 +3917,11 @@
         <v>279</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>282</v>
       </c>
@@ -3963,11 +3932,11 @@
         <v>284</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E91" s="17"/>
     </row>
-    <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>285</v>
       </c>
@@ -3978,11 +3947,11 @@
         <v>287</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E92" s="17"/>
     </row>
-    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -3993,11 +3962,11 @@
         <v>290</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E93" s="17"/>
     </row>
-    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>291</v>
       </c>
@@ -4008,11 +3977,11 @@
         <v>293</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E94" s="17"/>
     </row>
-    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
@@ -4023,11 +3992,11 @@
         <v>102</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E95" s="17"/>
     </row>
-    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>295</v>
       </c>
@@ -4038,11 +4007,11 @@
         <v>297</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E96" s="17"/>
     </row>
-    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>298</v>
       </c>
@@ -4053,11 +4022,11 @@
         <v>128</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E97" s="17"/>
     </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>300</v>
       </c>
@@ -4068,11 +4037,11 @@
         <v>267</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E98" s="17"/>
     </row>
-    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>302</v>
       </c>
@@ -4083,11 +4052,11 @@
         <v>115</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E99" s="17"/>
     </row>
-    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>306</v>
       </c>
@@ -4095,14 +4064,14 @@
         <v>307</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
@@ -4113,11 +4082,11 @@
         <v>143</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E101" s="17"/>
     </row>
-    <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
@@ -4128,11 +4097,11 @@
         <v>316</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E102" s="17"/>
     </row>
-    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -4143,11 +4112,11 @@
         <v>93</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E103" s="17"/>
     </row>
-    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>321</v>
       </c>
@@ -4158,11 +4127,11 @@
         <v>115</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E104" s="17"/>
     </row>
-    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>323</v>
       </c>
@@ -4173,11 +4142,11 @@
         <v>93</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>224</v>
       </c>
@@ -4188,11 +4157,11 @@
         <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E106" s="17"/>
     </row>
-    <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>328</v>
       </c>
@@ -4203,11 +4172,11 @@
         <v>161</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E107" s="17"/>
     </row>
-    <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>332</v>
       </c>
@@ -4218,11 +4187,11 @@
         <v>334</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>388</v>
       </c>
@@ -4233,11 +4202,11 @@
         <v>405</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E109" s="17"/>
     </row>
-    <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>335</v>
       </c>
@@ -4248,11 +4217,11 @@
         <v>337</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E110" s="17"/>
     </row>
-    <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>338</v>
       </c>
@@ -4263,11 +4232,11 @@
         <v>178</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>340</v>
       </c>
@@ -4275,14 +4244,14 @@
         <v>341</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>344</v>
       </c>
@@ -4293,10 +4262,10 @@
         <v>346</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>347</v>
       </c>
@@ -4307,10 +4276,10 @@
         <v>152</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>349</v>
       </c>
@@ -4321,10 +4290,10 @@
         <v>351</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>352</v>
       </c>
@@ -4335,7 +4304,7 @@
         <v>241</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -4374,7 +4343,7 @@
       <c r="AM116"/>
       <c r="AN116"/>
     </row>
-    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4385,7 +4354,7 @@
         <v>152</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4423,7 +4392,7 @@
       <c r="AM117"/>
       <c r="AN117"/>
     </row>
-    <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>356</v>
       </c>
@@ -4434,10 +4403,10 @@
         <v>235</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>358</v>
       </c>
@@ -4448,10 +4417,10 @@
         <v>24</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>360</v>
       </c>
@@ -4462,10 +4431,10 @@
         <v>362</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>363</v>
       </c>
@@ -4476,10 +4445,10 @@
         <v>206</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>365</v>
       </c>
@@ -4490,10 +4459,10 @@
         <v>367</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A123" s="15" t="s">
         <v>368</v>
       </c>
@@ -4504,10 +4473,10 @@
         <v>370</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
         <v>380</v>
       </c>
@@ -4518,10 +4487,10 @@
         <v>382</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A125" s="19" t="s">
         <v>383</v>
       </c>
@@ -4532,10 +4501,10 @@
         <v>385</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A126" s="21" t="s">
         <v>386</v>
       </c>
@@ -4543,13 +4512,13 @@
         <v>387</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>9</v>
       </c>
@@ -4560,10 +4529,10 @@
         <v>238</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>11</v>
       </c>
@@ -4574,10 +4543,10 @@
         <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -4588,10 +4557,10 @@
         <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -4602,24 +4571,24 @@
         <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>34</v>
       </c>
@@ -4630,10 +4599,10 @@
         <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>60</v>
       </c>
@@ -4644,10 +4613,10 @@
         <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>67</v>
       </c>
@@ -4658,10 +4627,10 @@
         <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>91</v>
       </c>
@@ -4672,10 +4641,10 @@
         <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>97</v>
       </c>
@@ -4686,10 +4655,10 @@
         <v>99</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>103</v>
       </c>
@@ -4700,10 +4669,10 @@
         <v>104</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>105</v>
       </c>
@@ -4714,10 +4683,10 @@
         <v>89</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>118</v>
       </c>
@@ -4728,10 +4697,10 @@
         <v>120</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>126</v>
       </c>
@@ -4742,10 +4711,10 @@
         <v>128</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>129</v>
       </c>
@@ -4756,10 +4725,10 @@
         <v>131</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>147</v>
       </c>
@@ -4770,10 +4739,10 @@
         <v>149</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>54</v>
       </c>
@@ -4784,10 +4753,10 @@
         <v>120</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>159</v>
       </c>
@@ -4798,10 +4767,10 @@
         <v>161</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>162</v>
       </c>
@@ -4809,13 +4778,13 @@
         <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>150</v>
       </c>
@@ -4826,10 +4795,10 @@
         <v>165</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>166</v>
       </c>
@@ -4840,10 +4809,10 @@
         <v>161</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>181</v>
       </c>
@@ -4854,10 +4823,10 @@
         <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>202</v>
       </c>
@@ -4868,10 +4837,10 @@
         <v>161</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>209</v>
       </c>
@@ -4882,24 +4851,24 @@
         <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>617</v>
-      </c>
       <c r="C151" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>211</v>
       </c>
@@ -4910,10 +4879,10 @@
         <v>213</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>214</v>
       </c>
@@ -4924,10 +4893,10 @@
         <v>216</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>217</v>
       </c>
@@ -4938,10 +4907,10 @@
         <v>219</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>224</v>
       </c>
@@ -4952,10 +4921,10 @@
         <v>226</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>227</v>
       </c>
@@ -4966,10 +4935,10 @@
         <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>242</v>
       </c>
@@ -4980,10 +4949,10 @@
         <v>244</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>245</v>
       </c>
@@ -4994,10 +4963,10 @@
         <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>249</v>
       </c>
@@ -5008,24 +4977,24 @@
         <v>251</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>615</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>280</v>
       </c>
@@ -5036,10 +5005,10 @@
         <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>304</v>
       </c>
@@ -5050,10 +5019,10 @@
         <v>24</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>308</v>
       </c>
@@ -5064,10 +5033,10 @@
         <v>21</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>310</v>
       </c>
@@ -5078,10 +5047,10 @@
         <v>312</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>319</v>
       </c>
@@ -5092,10 +5061,10 @@
         <v>241</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>326</v>
       </c>
@@ -5106,10 +5075,10 @@
         <v>161</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>330</v>
       </c>
@@ -5120,10 +5089,10 @@
         <v>120</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>342</v>
       </c>
@@ -5134,10 +5103,10 @@
         <v>316</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>285</v>
       </c>
@@ -5148,10 +5117,10 @@
         <v>74</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>372</v>
       </c>
@@ -5159,13 +5128,13 @@
         <v>373</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>374</v>
       </c>
@@ -5176,10 +5145,10 @@
         <v>376</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>377</v>
       </c>
@@ -5190,17 +5159,31 @@
         <v>379</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="B173" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:E172">
-    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:E172">
+    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="0"/>
     <sortCondition ref="B14:B172"/>
     <sortCondition ref="A14:A172"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5212,16 +5195,16 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.1328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -5232,10 +5215,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -5246,10 +5229,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -5260,10 +5243,10 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>422</v>
       </c>
@@ -5274,10 +5257,10 @@
         <v>405</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -5288,10 +5271,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>285</v>
       </c>
@@ -5302,10 +5285,10 @@
         <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
@@ -5316,10 +5299,10 @@
         <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -5330,10 +5313,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>136</v>
       </c>
@@ -5344,10 +5327,10 @@
         <v>138</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>416</v>
       </c>
@@ -5358,10 +5341,10 @@
         <v>414</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>207</v>
       </c>
@@ -5372,10 +5355,10 @@
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>413</v>
       </c>
@@ -5386,10 +5369,10 @@
         <v>411</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>410</v>
       </c>
@@ -5400,10 +5383,10 @@
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
@@ -5414,10 +5397,10 @@
         <v>235</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>408</v>
       </c>
@@ -5428,10 +5411,10 @@
         <v>284</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>252</v>
       </c>
@@ -5442,10 +5425,10 @@
         <v>254</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>255</v>
       </c>
@@ -5456,10 +5439,10 @@
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>404</v>
       </c>
@@ -5470,10 +5453,10 @@
         <v>402</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>268</v>
       </c>
@@ -5484,10 +5467,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>273</v>
       </c>
@@ -5498,10 +5481,10 @@
         <v>275</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>277</v>
       </c>
@@ -5512,10 +5495,10 @@
         <v>279</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>401</v>
       </c>
@@ -5526,10 +5509,10 @@
         <v>399</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>398</v>
       </c>
@@ -5540,10 +5523,10 @@
         <v>396</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>285</v>
       </c>
@@ -5554,10 +5537,10 @@
         <v>287</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>395</v>
       </c>
@@ -5568,10 +5551,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>298</v>
       </c>
@@ -5582,10 +5565,10 @@
         <v>128</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>393</v>
       </c>
@@ -5596,21 +5579,21 @@
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>580</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5649,7 +5632,7 @@
       <c r="AM28"/>
       <c r="AN28"/>
     </row>
-    <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>344</v>
       </c>
@@ -5660,10 +5643,10 @@
         <v>346</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -5674,10 +5657,10 @@
         <v>235</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>391</v>
       </c>
@@ -5688,10 +5671,10 @@
         <v>362</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>365</v>
       </c>
@@ -5702,10 +5685,10 @@
         <v>367</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>383</v>
       </c>
@@ -5716,10 +5699,10 @@
         <v>385</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>424</v>
       </c>
@@ -5730,10 +5713,10 @@
         <v>405</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>420</v>
       </c>
@@ -5744,10 +5727,10 @@
         <v>128</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>197</v>
       </c>
@@ -5758,10 +5741,10 @@
         <v>405</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>265</v>
       </c>
@@ -5769,10 +5752,10 @@
         <v>390</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5789,16 +5772,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.1328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>477</v>
       </c>
@@ -5809,10 +5792,10 @@
         <v>471</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>475</v>
       </c>
@@ -5823,10 +5806,10 @@
         <v>473</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -5837,10 +5820,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -5851,10 +5834,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -5865,10 +5848,10 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>467</v>
       </c>
@@ -5879,10 +5862,10 @@
         <v>465</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>464</v>
       </c>
@@ -5893,10 +5876,10 @@
         <v>462</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>176</v>
       </c>
@@ -5907,10 +5890,10 @@
         <v>460</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>459</v>
       </c>
@@ -5921,10 +5904,10 @@
         <v>457</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>456</v>
       </c>
@@ -5935,10 +5918,10 @@
         <v>434</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
@@ -5949,10 +5932,10 @@
         <v>143</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>185</v>
       </c>
@@ -5963,10 +5946,10 @@
         <v>187</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>453</v>
       </c>
@@ -5977,10 +5960,10 @@
         <v>451</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>450</v>
       </c>
@@ -5991,10 +5974,10 @@
         <v>448</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -6005,10 +5988,10 @@
         <v>446</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -6019,7 +6002,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6057,7 +6040,7 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>354</v>
       </c>
@@ -6068,10 +6051,10 @@
         <v>444</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>441</v>
       </c>
@@ -6082,10 +6065,10 @@
         <v>439</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>265</v>
       </c>
@@ -6096,10 +6079,10 @@
         <v>267</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>282</v>
       </c>
@@ -6110,10 +6093,10 @@
         <v>284</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>438</v>
       </c>
@@ -6121,13 +6104,13 @@
         <v>437</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -6138,10 +6121,10 @@
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>436</v>
       </c>
@@ -6152,10 +6135,10 @@
         <v>434</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>352</v>
       </c>
@@ -6166,7 +6149,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6204,7 +6187,7 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>433</v>
       </c>
@@ -6215,10 +6198,10 @@
         <v>431</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>363</v>
       </c>
@@ -6229,10 +6212,10 @@
         <v>206</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>430</v>
       </c>
@@ -6243,10 +6226,10 @@
         <v>428</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>239</v>
       </c>
@@ -6257,10 +6240,10 @@
         <v>471</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>280</v>
       </c>
@@ -6271,10 +6254,10 @@
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>469</v>
       </c>
@@ -6285,10 +6268,10 @@
         <v>465</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>181</v>
       </c>
@@ -6299,10 +6282,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>443</v>
       </c>
@@ -6310,13 +6293,13 @@
         <v>442</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>319</v>
       </c>
@@ -6327,10 +6310,10 @@
         <v>241</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>427</v>
       </c>
@@ -6341,7 +6324,7 @@
         <v>425</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -6355,33 +6338,33 @@
   <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="60" style="3" customWidth="1"/>
     <col min="4" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>477</v>
       </c>
@@ -6392,80 +6375,80 @@
         <v>471</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>417</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>383</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>479</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>285</v>
       </c>
@@ -6476,161 +6459,161 @@
         <v>417</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6668,46 +6651,46 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6745,49 +6728,49 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>404</v>
       </c>
@@ -6798,10 +6781,10 @@
         <v>402</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -6812,52 +6795,52 @@
         <v>264</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>302</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>484</v>
       </c>
@@ -6868,21 +6851,21 @@
         <v>482</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6920,7 +6903,7 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>481</v>
       </c>
@@ -6931,248 +6914,248 @@
         <v>479</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>413</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>471</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>328</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>486</v>
+        <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>360</v>
       </c>
@@ -7183,10 +7166,10 @@
         <v>482</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>478</v>
       </c>
@@ -7197,7 +7180,7 @@
         <v>471</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirli\Dropbox\icaps19_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B464912-464A-4369-9D31-45D1A38B49C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FE009-D53E-B941-AD18-6BE208A807F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="617">
   <si>
     <t>Mouaddib</t>
   </si>
@@ -919,9 +919,6 @@
     <t>Richter</t>
   </si>
   <si>
-    <t>Robert Bosch GmbH</t>
-  </si>
-  <si>
     <t>Jussi</t>
   </si>
   <si>
@@ -1087,9 +1084,6 @@
     <t>Teichteil-Königsbuch</t>
   </si>
   <si>
-    <t>Airbus Group Innovations</t>
-  </si>
-  <si>
     <t>Sylvie</t>
   </si>
   <si>
@@ -1898,6 +1892,12 @@
   </si>
   <si>
     <t>Lê Cong</t>
+  </si>
+  <si>
+    <t>Airbus Central Research and Technology</t>
+  </si>
+  <si>
+    <t>Bosch Center for Artificial Intelligence</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2154,16 +2154,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2242,11 +2270,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFEBF6EA"/>
+      <color rgb="FFB2EED0"/>
       <color rgb="FFEDF5EC"/>
       <color rgb="FFEBF5EB"/>
       <color rgb="FFCEF7E5"/>
-      <color rgb="FFEBF6EA"/>
-      <color rgb="FFB2EED0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2561,35 +2589,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN173"/>
+  <dimension ref="A1:AN172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="29.46484375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
         <v>168</v>
       </c>
@@ -2600,38 +2628,38 @@
         <v>152</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>272</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
@@ -2642,66 +2670,66 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>601</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -2712,12 +2740,12 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>175</v>
@@ -2726,24 +2754,24 @@
         <v>120</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
         <v>63</v>
       </c>
@@ -2754,10 +2782,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2768,10 +2796,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2782,10 +2810,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2796,10 +2824,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2810,10 +2838,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2824,10 +2852,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2838,10 +2866,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2852,10 +2880,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2866,10 +2894,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2880,10 +2908,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2894,10 +2922,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2908,10 +2936,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2922,10 +2950,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2936,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,10 +2978,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2964,10 +2992,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2978,10 +3006,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2992,10 +3020,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -3006,10 +3034,10 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -3020,10 +3048,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3034,10 +3062,10 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -3048,10 +3076,10 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -3062,10 +3090,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>87</v>
       </c>
@@ -3076,10 +3104,10 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
@@ -3090,10 +3118,10 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
@@ -3104,10 +3132,10 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>100</v>
       </c>
@@ -3118,10 +3146,10 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>107</v>
       </c>
@@ -3132,10 +3160,10 @@
         <v>109</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>110</v>
       </c>
@@ -3146,7 +3174,7 @@
         <v>112</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3185,7 +3213,7 @@
       <c r="AM41"/>
       <c r="AN41"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -3196,10 +3224,10 @@
         <v>115</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
@@ -3210,10 +3238,10 @@
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>121</v>
       </c>
@@ -3224,10 +3252,10 @@
         <v>123</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -3238,10 +3266,10 @@
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -3252,10 +3280,10 @@
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>134</v>
       </c>
@@ -3266,10 +3294,10 @@
         <v>109</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3280,10 +3308,10 @@
         <v>138</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
@@ -3294,7 +3322,7 @@
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3333,7 +3361,7 @@
       <c r="AM49"/>
       <c r="AN49"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>141</v>
       </c>
@@ -3344,10 +3372,10 @@
         <v>143</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
@@ -3358,10 +3386,10 @@
         <v>146</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>150</v>
       </c>
@@ -3372,10 +3400,10 @@
         <v>152</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3386,10 +3414,10 @@
         <v>155</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3400,24 +3428,24 @@
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
@@ -3428,10 +3456,10 @@
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
@@ -3442,10 +3470,10 @@
         <v>174</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -3456,10 +3484,10 @@
         <v>180</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -3470,10 +3498,10 @@
         <v>178</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>183</v>
       </c>
@@ -3484,10 +3512,10 @@
         <v>143</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
@@ -3498,24 +3526,24 @@
         <v>187</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>188</v>
       </c>
@@ -3526,10 +3554,10 @@
         <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>190</v>
       </c>
@@ -3540,10 +3568,10 @@
         <v>93</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>192</v>
       </c>
@@ -3554,10 +3582,10 @@
         <v>194</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>195</v>
       </c>
@@ -3565,13 +3593,13 @@
         <v>196</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -3579,13 +3607,13 @@
         <v>198</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>199</v>
       </c>
@@ -3596,10 +3624,10 @@
         <v>201</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>204</v>
       </c>
@@ -3610,10 +3638,10 @@
         <v>206</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>207</v>
       </c>
@@ -3624,24 +3652,24 @@
         <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>172</v>
       </c>
@@ -3652,10 +3680,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3666,10 +3694,10 @@
         <v>223</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>176</v>
       </c>
@@ -3680,10 +3708,10 @@
         <v>230</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>233</v>
       </c>
@@ -3694,10 +3722,10 @@
         <v>235</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>231</v>
       </c>
@@ -3708,10 +3736,10 @@
         <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>236</v>
       </c>
@@ -3722,11 +3750,11 @@
         <v>238</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E77" s="17"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>239</v>
       </c>
@@ -3737,11 +3765,11 @@
         <v>241</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>247</v>
       </c>
@@ -3752,11 +3780,11 @@
         <v>178</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E79" s="17"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>252</v>
       </c>
@@ -3767,11 +3795,11 @@
         <v>254</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>144</v>
       </c>
@@ -3779,14 +3807,14 @@
         <v>257</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E81" s="17"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>236</v>
       </c>
@@ -3797,11 +3825,11 @@
         <v>259</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E82" s="17"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>260</v>
       </c>
@@ -3812,11 +3840,11 @@
         <v>262</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E83" s="17"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -3827,11 +3855,11 @@
         <v>264</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E84" s="17"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>265</v>
       </c>
@@ -3842,11 +3870,11 @@
         <v>267</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E85" s="17"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>268</v>
       </c>
@@ -3857,11 +3885,11 @@
         <v>30</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E86" s="17"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>270</v>
       </c>
@@ -3872,11 +3900,11 @@
         <v>272</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E87" s="17"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>273</v>
       </c>
@@ -3887,11 +3915,11 @@
         <v>275</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E88" s="17"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
@@ -3902,11 +3930,11 @@
         <v>93</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E89" s="17"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>277</v>
       </c>
@@ -3917,11 +3945,11 @@
         <v>279</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>282</v>
       </c>
@@ -3932,11 +3960,11 @@
         <v>284</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E91" s="17"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>285</v>
       </c>
@@ -3947,11 +3975,11 @@
         <v>287</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E92" s="17"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>288</v>
       </c>
@@ -3959,352 +3987,352 @@
         <v>289</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="D94" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E94" s="17"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E95" s="17"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E97" s="17"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E98" s="17"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E99" s="17"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E101" s="17"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E103" s="17"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E104" s="17"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E106" s="17"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E107" s="17"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="114" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="D115" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D115" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="116" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -4343,18 +4371,18 @@
       <c r="AM116"/>
       <c r="AN116"/>
     </row>
-    <row r="117" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4392,133 +4420,133 @@
       <c r="AM117"/>
       <c r="AN117"/>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="D120" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="D122" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="B123" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A123" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B123" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>370</v>
-      </c>
       <c r="D123" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="D124" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="B125" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A125" s="19" t="s">
+      <c r="C125" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="D125" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="B126" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A126" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>387</v>
-      </c>
       <c r="C126" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="11" t="s">
         <v>9</v>
       </c>
@@ -4529,10 +4557,10 @@
         <v>238</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
         <v>11</v>
       </c>
@@ -4543,10 +4571,10 @@
         <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -4557,10 +4585,10 @@
         <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -4571,24 +4599,24 @@
         <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
         <v>34</v>
       </c>
@@ -4599,10 +4627,10 @@
         <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="6" t="s">
         <v>60</v>
       </c>
@@ -4613,10 +4641,10 @@
         <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
         <v>67</v>
       </c>
@@ -4627,10 +4655,10 @@
         <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>91</v>
       </c>
@@ -4641,10 +4669,10 @@
         <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
         <v>97</v>
       </c>
@@ -4655,10 +4683,10 @@
         <v>99</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
         <v>103</v>
       </c>
@@ -4669,10 +4697,10 @@
         <v>104</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
         <v>105</v>
       </c>
@@ -4683,10 +4711,10 @@
         <v>89</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>118</v>
       </c>
@@ -4697,10 +4725,10 @@
         <v>120</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
         <v>126</v>
       </c>
@@ -4711,10 +4739,10 @@
         <v>128</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
         <v>129</v>
       </c>
@@ -4725,10 +4753,10 @@
         <v>131</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
         <v>147</v>
       </c>
@@ -4739,10 +4767,10 @@
         <v>149</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="6" t="s">
         <v>54</v>
       </c>
@@ -4753,10 +4781,10 @@
         <v>120</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
         <v>159</v>
       </c>
@@ -4767,10 +4795,10 @@
         <v>161</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
         <v>162</v>
       </c>
@@ -4778,13 +4806,13 @@
         <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
         <v>150</v>
       </c>
@@ -4795,10 +4823,10 @@
         <v>165</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
         <v>166</v>
       </c>
@@ -4809,10 +4837,10 @@
         <v>161</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>181</v>
       </c>
@@ -4823,10 +4851,10 @@
         <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
         <v>202</v>
       </c>
@@ -4837,10 +4865,10 @@
         <v>161</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
         <v>209</v>
       </c>
@@ -4851,24 +4879,24 @@
         <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
         <v>211</v>
       </c>
@@ -4879,10 +4907,10 @@
         <v>213</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
         <v>214</v>
       </c>
@@ -4893,10 +4921,10 @@
         <v>216</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
         <v>217</v>
       </c>
@@ -4907,10 +4935,10 @@
         <v>219</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
         <v>224</v>
       </c>
@@ -4921,10 +4949,10 @@
         <v>226</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
         <v>227</v>
       </c>
@@ -4935,10 +4963,10 @@
         <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
         <v>242</v>
       </c>
@@ -4949,10 +4977,10 @@
         <v>244</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
         <v>245</v>
       </c>
@@ -4963,10 +4991,10 @@
         <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
         <v>249</v>
       </c>
@@ -4977,24 +5005,24 @@
         <v>251</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C160" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C160" s="26" t="s">
-        <v>614</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
         <v>280</v>
       </c>
@@ -5005,185 +5033,171 @@
         <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="D164" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="D171" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>379</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="B173" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C173" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:E172">
-    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="0"/>
+  <sortState ref="A14:E172">
+    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="4"/>
     <sortCondition ref="B14:B172"/>
     <sortCondition ref="A14:A172"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -5192,19 +5206,19 @@
   <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -5215,10 +5229,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -5229,10 +5243,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -5243,24 +5257,24 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>94</v>
       </c>
@@ -5271,24 +5285,24 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>107</v>
       </c>
@@ -5299,10 +5313,10 @@
         <v>109</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -5313,10 +5327,10 @@
         <v>109</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>136</v>
       </c>
@@ -5327,24 +5341,24 @@
         <v>138</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>207</v>
       </c>
@@ -5355,38 +5369,38 @@
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>233</v>
       </c>
@@ -5397,24 +5411,24 @@
         <v>235</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>252</v>
       </c>
@@ -5425,10 +5439,10 @@
         <v>254</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>255</v>
       </c>
@@ -5439,24 +5453,24 @@
         <v>143</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="25.5" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>268</v>
       </c>
@@ -5467,10 +5481,10 @@
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>273</v>
       </c>
@@ -5481,10 +5495,10 @@
         <v>275</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>277</v>
       </c>
@@ -5495,38 +5509,38 @@
         <v>279</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>285</v>
       </c>
@@ -5537,63 +5551,63 @@
         <v>287</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5632,130 +5646,130 @@
       <c r="AM28"/>
       <c r="AN28"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>345</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>346</v>
+        <v>615</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>235</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>385</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
         <v>265</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5772,44 +5786,44 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.1328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>473</v>
-      </c>
       <c r="D2" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -5820,10 +5834,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -5834,10 +5848,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -5848,94 +5862,94 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>143</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>185</v>
       </c>
@@ -5946,52 +5960,52 @@
         <v>187</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>231</v>
       </c>
@@ -6002,7 +6016,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6040,35 +6054,35 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>265</v>
       </c>
@@ -6079,10 +6093,10 @@
         <v>267</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>282</v>
       </c>
@@ -6093,63 +6107,63 @@
         <v>284</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6187,91 +6201,91 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>280</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>181</v>
       </c>
@@ -6282,49 +6296,49 @@
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -6341,279 +6355,279 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="60" style="3" customWidth="1"/>
     <col min="4" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.796875" style="3"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>214</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>288</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6651,46 +6665,46 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6728,63 +6742,63 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -6795,77 +6809,77 @@
         <v>264</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6903,284 +6917,284 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>491</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FE009-D53E-B941-AD18-6BE208A807F5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615AD8DE-560D-CD4F-85AF-25478D6158F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="620" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t>Zohreh</t>
   </si>
   <si>
-    <t>WSRI</t>
-  </si>
-  <si>
     <t>Elad</t>
   </si>
   <si>
@@ -1898,6 +1895,9 @@
   </si>
   <si>
     <t>Bosch Center for Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Wright State University</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2592,7 @@
   <dimension ref="A1:AN172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2605,58 +2605,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>583</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>584</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>169</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>586</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2670,63 +2670,63 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>591</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>594</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2740,35 +2740,35 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>595</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>596</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -2782,7 +2782,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2810,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2824,7 +2824,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2838,7 +2838,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2852,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2866,7 +2866,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2880,7 +2880,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2894,7 +2894,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2908,7 +2908,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2922,7 +2922,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2936,7 +2936,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2950,7 +2950,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2964,7 +2964,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2978,7 +2978,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -2992,7 +2992,7 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3006,7 +3006,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3020,7 +3020,7 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3034,7 +3034,7 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -3048,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3062,7 +3062,7 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3076,7 +3076,7 @@
         <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3090,7 +3090,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3104,7 +3104,7 @@
         <v>89</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3118,7 +3118,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3132,7 +3132,7 @@
         <v>96</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3146,35 +3146,35 @@
         <v>102</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="D40" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D41" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3215,114 +3215,114 @@
     </row>
     <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>115</v>
-      </c>
       <c r="D42" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D44" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="D48" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3363,72 +3363,72 @@
     </row>
     <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D50" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D51" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="D52" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D53" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3436,41 +3436,41 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -3478,369 +3478,369 @@
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D59" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="D61" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>574</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D65" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D68" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="D69" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="D74" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="D75" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D77" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E77" s="17"/>
     </row>
     <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D78" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E79" s="17"/>
     </row>
     <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D80" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E80" s="17"/>
     </row>
     <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E81" s="17"/>
     </row>
     <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D82" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E82" s="17"/>
     </row>
     <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="D83" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E83" s="17"/>
     </row>
@@ -3849,163 +3849,163 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D84" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E84" s="17"/>
     </row>
     <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="D85" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E85" s="17"/>
     </row>
     <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E86" s="17"/>
     </row>
     <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D87" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E87" s="17"/>
     </row>
     <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="D88" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D90" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D91" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E91" s="17"/>
     </row>
     <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D92" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E92" s="17"/>
     </row>
     <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E93" s="17"/>
     </row>
     <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="D94" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E94" s="17"/>
     </row>
@@ -4014,88 +4014,88 @@
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E95" s="17"/>
     </row>
     <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="D96" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E96" s="17"/>
     </row>
     <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E97" s="17"/>
     </row>
     <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C98" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E98" s="17"/>
     </row>
     <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E99" s="17"/>
     </row>
     <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E100" s="17"/>
     </row>
@@ -4104,235 +4104,235 @@
         <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E101" s="17"/>
     </row>
     <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="D102" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E102" s="17"/>
     </row>
     <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E103" s="17"/>
     </row>
     <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E104" s="17"/>
     </row>
     <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E105" s="17"/>
     </row>
     <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E106" s="17"/>
     </row>
     <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E107" s="17"/>
     </row>
     <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="D108" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E108" s="17"/>
     </row>
     <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E109" s="17"/>
     </row>
     <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="D110" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E110" s="17"/>
     </row>
     <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E111" s="17"/>
     </row>
     <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E112" s="17"/>
     </row>
     <row r="113" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="C113" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="D115" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -4373,16 +4373,16 @@
     </row>
     <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4422,128 +4422,128 @@
     </row>
     <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="D120" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="D122" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="D123" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C124" s="16" t="s">
-        <v>380</v>
-      </c>
       <c r="D124" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B125" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C125" s="19" t="s">
-        <v>383</v>
-      </c>
       <c r="D125" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B126" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>385</v>
-      </c>
       <c r="C126" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -4554,10 +4554,10 @@
         <v>10</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
@@ -4571,7 +4571,7 @@
         <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4585,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4599,21 +4599,21 @@
         <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4627,7 +4627,7 @@
         <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4641,7 +4641,7 @@
         <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4655,7 +4655,7 @@
         <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4669,7 +4669,7 @@
         <v>93</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4683,7 +4683,7 @@
         <v>99</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4694,80 +4694,80 @@
         <v>101</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>104</v>
+        <v>616</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D140" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="D141" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="D142" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -4775,419 +4775,419 @@
         <v>54</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="D144" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="C145" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D146" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="C147" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="C149" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="C151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="D152" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="D153" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="D154" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="D155" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="D157" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="D159" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>612</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="D164" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="C165" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="C166" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="C167" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="C170" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>374</v>
-      </c>
       <c r="D171" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5229,7 +5229,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5243,7 +5243,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5257,21 +5257,21 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -5285,329 +5285,329 @@
         <v>96</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="D16" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>577</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5648,128 +5648,128 @@
     </row>
     <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -5797,30 +5797,30 @@
   <sheetData>
     <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5834,7 +5834,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5848,7 +5848,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5862,133 +5862,133 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -5996,27 +5996,27 @@
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6056,72 +6056,72 @@
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6129,41 +6129,41 @@
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>351</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6203,142 +6203,142 @@
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6366,156 +6366,156 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
@@ -6523,111 +6523,111 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6667,44 +6667,44 @@
     </row>
     <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6744,58 +6744,58 @@
     </row>
     <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6803,27 +6803,27 @@
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
@@ -6831,55 +6831,55 @@
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6919,282 +6919,282 @@
     </row>
     <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
+++ b/pagegen/icaps19_info/ICAPS-2019_PC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/desmith/Dropbox/conferences/ICAPS/ICAPS19/icaps19_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatha\Dropbox\websites\TathagataChakraborti.github.io\pagegen\icaps19_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615AD8DE-560D-CD4F-85AF-25478D6158F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F59396-73CC-472B-AF86-14B8305F4613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="620" windowWidth="19180" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="443" yWindow="623" windowWidth="19178" windowHeight="26820" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -301,9 +301,6 @@
     <t>Chakraborti</t>
   </si>
   <si>
-    <t>Arizona State Univeristy</t>
-  </si>
-  <si>
     <t>Andre Augusto</t>
   </si>
   <si>
@@ -1898,6 +1895,9 @@
   </si>
   <si>
     <t>Wright State University</t>
+  </si>
+  <si>
+    <t>IBM Research AI</t>
   </si>
 </sst>
 </file>
@@ -2159,39 +2159,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{824E508C-7B8E-B143-99AD-52F2A8459EB6}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2591,75 +2559,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="29.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>582</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>583</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>586</v>
-      </c>
       <c r="C4" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>49</v>
       </c>
@@ -2670,66 +2638,66 @@
         <v>51</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="s">
+      <c r="B7" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="23" t="s">
+      <c r="B8" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B9" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>593</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
@@ -2740,38 +2708,38 @@
         <v>30</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>63</v>
       </c>
@@ -2782,10 +2750,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2796,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2810,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2824,10 +2792,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -2838,10 +2806,10 @@
         <v>77</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -2852,10 +2820,10 @@
         <v>18</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -2866,10 +2834,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -2880,10 +2848,10 @@
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2894,10 +2862,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2908,10 +2876,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2922,10 +2890,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2936,10 +2904,10 @@
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2950,10 +2918,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2964,10 +2932,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2978,10 +2946,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
@@ -2992,10 +2960,10 @@
         <v>59</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3006,10 +2974,10 @@
         <v>66</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -3020,10 +2988,10 @@
         <v>71</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -3034,10 +3002,10 @@
         <v>74</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>78</v>
       </c>
@@ -3048,10 +3016,10 @@
         <v>30</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3062,10 +3030,10 @@
         <v>56</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -3073,108 +3041,108 @@
         <v>83</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="35" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="B37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D37" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D38" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D39" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="D41" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -3213,116 +3181,116 @@
       <c r="AM41"/>
       <c r="AN41"/>
     </row>
-    <row r="42" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -3361,978 +3329,978 @@
       <c r="AM49"/>
       <c r="AN49"/>
     </row>
-    <row r="50" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D51" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="D53" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="57" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="58" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="D59" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D68" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A75" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="D78" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E78" s="17"/>
     </row>
-    <row r="79" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C79" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E79" s="17"/>
     </row>
-    <row r="80" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D80" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D83" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E83" s="17"/>
     </row>
-    <row r="84" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D84" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D85" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A86" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E86" s="17"/>
     </row>
-    <row r="87" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D87" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D88" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A90" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D90" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D91" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E92" s="17"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E92" s="17"/>
-    </row>
-    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="D94" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E94" s="17"/>
     </row>
-    <row r="95" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E95" s="17"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E96" s="17"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E96" s="17"/>
-    </row>
-    <row r="97" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E97" s="17"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E97" s="17"/>
-    </row>
-    <row r="98" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E98" s="17"/>
-    </row>
-    <row r="99" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E99" s="17"/>
     </row>
-    <row r="100" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E100" s="17"/>
     </row>
-    <row r="101" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D102" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E102" s="17"/>
-    </row>
-    <row r="103" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E103" s="17"/>
     </row>
-    <row r="104" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E104" s="17"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E104" s="17"/>
-    </row>
-    <row r="105" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E105" s="17"/>
-    </row>
-    <row r="106" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E106" s="17"/>
     </row>
-    <row r="107" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E107" s="17"/>
     </row>
-    <row r="108" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A109" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D109" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E109" s="17"/>
-    </row>
-    <row r="110" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E110" s="17"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E110" s="17"/>
-    </row>
-    <row r="111" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E111" s="17"/>
-    </row>
-    <row r="112" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="114" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="115" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="115" spans="1:40" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D115" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="116" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
@@ -4371,18 +4339,18 @@
       <c r="AM116"/>
       <c r="AN116"/>
     </row>
-    <row r="117" spans="1:40" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C117" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F117"/>
       <c r="G117"/>
@@ -4420,133 +4388,133 @@
       <c r="AM117"/>
       <c r="AN117"/>
     </row>
-    <row r="118" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="119" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="120" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D120" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="121" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D121" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="122" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A123" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="D122" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="123" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A123" s="15" t="s">
+      <c r="B123" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="C123" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C123" s="15" t="s">
-        <v>367</v>
-      </c>
       <c r="D123" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="124" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="C124" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="D124" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A125" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="125" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A125" s="19" t="s">
+      <c r="B125" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="C125" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="D125" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A126" s="21" t="s">
         <v>382</v>
       </c>
-      <c r="D125" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="126" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A126" s="21" t="s">
+      <c r="B126" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B126" s="21" t="s">
-        <v>384</v>
-      </c>
       <c r="C126" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="127" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>9</v>
       </c>
@@ -4554,13 +4522,13 @@
         <v>10</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="128" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>11</v>
       </c>
@@ -4571,10 +4539,10 @@
         <v>27</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -4585,10 +4553,10 @@
         <v>15</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>31</v>
       </c>
@@ -4599,24 +4567,24 @@
         <v>33</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>34</v>
       </c>
@@ -4627,10 +4595,10 @@
         <v>36</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>60</v>
       </c>
@@ -4641,10 +4609,10 @@
         <v>62</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>67</v>
       </c>
@@ -4655,544 +4623,544 @@
         <v>27</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="C135" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D135" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="C136" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="D136" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A138" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="C138" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="C139" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="C140" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="D140" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D140" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A141" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="C141" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D141" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="C142" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D142" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="C144" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="D144" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A145" s="6" t="s">
+      <c r="B145" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="C145" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A146" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146" s="6" t="s">
+      <c r="C146" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="D146" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D146" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A147" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="C147" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="C149" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="B151" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B151" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="C151" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="D152" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A153" s="6" t="s">
+      <c r="B153" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="C153" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="D153" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D153" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A154" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="D154" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="C155" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D155" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A156" s="6" t="s">
+      <c r="B156" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="D157" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D157" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A158" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B159" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="D159" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="C160" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>611</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>280</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>303</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D164" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="C165" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>325</v>
-      </c>
       <c r="C166" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="C167" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B168" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="C168" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="C170" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A171" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D171" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D171" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A172" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>376</v>
-      </c>
       <c r="D172" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:E172">
-    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="E14:E172" dxfId="0"/>
     <sortCondition ref="B14:B172"/>
     <sortCondition ref="A14:A172"/>
   </sortState>
@@ -5209,16 +5177,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.1328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -5229,10 +5197,10 @@
         <v>24</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -5243,10 +5211,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
@@ -5257,357 +5225,357 @@
         <v>45</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D9" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="D21" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>286</v>
-      </c>
       <c r="D24" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>576</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28"/>
@@ -5646,130 +5614,130 @@
       <c r="AM28"/>
       <c r="AN28"/>
     </row>
-    <row r="29" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="C29" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="D32" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -5786,44 +5754,44 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="44.1328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
@@ -5834,10 +5802,10 @@
         <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
@@ -5848,10 +5816,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -5862,161 +5830,161 @@
         <v>71</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="D12" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -6054,116 +6022,116 @@
       <c r="AL16"/>
       <c r="AM16"/>
     </row>
-    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>283</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -6201,144 +6169,144 @@
       <c r="AL24"/>
       <c r="AM24"/>
     </row>
-    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="C26" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -6355,279 +6323,279 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
     <col min="3" max="3" width="60" style="3" customWidth="1"/>
     <col min="4" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>415</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" s="7" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6665,46 +6633,46 @@
       <c r="AL19"/>
       <c r="AM19"/>
     </row>
-    <row r="20" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6742,144 +6710,144 @@
       <c r="AL22"/>
       <c r="AM22"/>
     </row>
-    <row r="23" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -6917,284 +6885,284 @@
       <c r="AL32"/>
       <c r="AM32"/>
     </row>
-    <row r="33" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
